--- a/Conceptos_relaciones/LSA/LSI_final_enriquecimiento_tc.xlsx
+++ b/Conceptos_relaciones/LSA/LSI_final_enriquecimiento_tc.xlsx
@@ -13,17 +13,17 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>30_mean</t>
+    <t>14_mean</t>
   </si>
   <si>
-    <t>30_std</t>
+    <t>14_std</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -38,6 +38,11 @@
       <b/>
       <sz val="11.0"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -73,7 +78,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -83,7 +88,10 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -354,90 +362,90 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <v>-0.8962304561</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
         <v>-1.458756509</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>-2.054423914</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="4">
         <v>-2.342476489</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="4">
         <v>-2.40304901</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="4">
         <v>-2.621146607</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="4">
         <v>-2.63698242</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="4">
         <v>-2.874897115</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="4">
         <v>-2.987442375</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="4">
         <v>-3.084635857</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="4">
         <v>-3.15236415</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="4">
         <v>-3.250117519</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="4">
         <v>-3.452129877</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="5">
         <v>0.04961621972825242</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="5">
         <v>0.037362902604619</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <v>0.02794039208970627</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="5">
         <v>0.02947299161885722</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="5">
         <v>0.02769739841836166</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="5">
         <v>0.02404619685771838</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="5">
         <v>0.02612519441098347</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="5">
         <v>0.02558977197265313</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="5">
         <v>0.02635330911668449</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="5">
         <v>0.02852557671595676</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="5">
         <v>0.02925861645163124</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="5">
         <v>0.02814919197896273</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="5">
         <v>0.02828792313453043</v>
       </c>
     </row>
